--- a/Automaton Destruct Rate/automaton-destruct-rate.xlsx
+++ b/Automaton Destruct Rate/automaton-destruct-rate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Louis\Documents\GitHub\Endless-Sky-Plugins\Automaton Destruct Rate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{083F6A54-3634-4EC4-B201-10A7F2EBC48A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00934F19-AB1B-4ACC-B84B-80229673C2F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="1380" windowWidth="29160" windowHeight="20415" xr2:uid="{C5CFB0A3-7DD5-4C45-BA6F-B73DF3403A09}"/>
+    <workbookView xWindow="2730" yWindow="1185" windowWidth="32190" windowHeight="20415" xr2:uid="{C5CFB0A3-7DD5-4C45-BA6F-B73DF3403A09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="31">
   <si>
     <t>Name </t>
   </si>
@@ -87,7 +87,43 @@
     <t>Default</t>
   </si>
   <si>
-    <t>Modified</t>
+    <t>Modified x2/x4</t>
+  </si>
+  <si>
+    <t>Proposed Custom</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Interceptor</t>
+  </si>
+  <si>
+    <t>Light Warship</t>
+  </si>
+  <si>
+    <t>Medium Warship</t>
+  </si>
+  <si>
+    <t>Heavy Warship</t>
+  </si>
+  <si>
+    <t>Drone</t>
+  </si>
+  <si>
+    <t>Fighter</t>
+  </si>
+  <si>
+    <t>Easy Mode</t>
+  </si>
+  <si>
+    <t>Faction</t>
+  </si>
+  <si>
+    <t>Kor Mereti</t>
+  </si>
+  <si>
+    <t>Kor Sestor</t>
   </si>
 </sst>
 </file>
@@ -131,17 +167,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -458,335 +497,669 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C175E60E-4A51-4575-912F-3E57C7BF7133}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3:D16"/>
+      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="5"/>
+      <c r="F1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G1" s="5"/>
+      <c r="H1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="6"/>
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2">
+      <c r="D3" s="2">
         <v>0.6</v>
       </c>
-      <c r="C3" s="2">
-        <f>(1-B3)^2</f>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E14" si="0">(1-D3)^2</f>
         <v>0.16000000000000003</v>
       </c>
-      <c r="D3" s="2">
-        <f>1-(1-B3)*2</f>
+      <c r="F3" s="2">
+        <f>1-(1-D3)*2</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="E3" s="2">
-        <f>(1-D3)^2</f>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G14" si="1">(1-F3)^2</f>
         <v>0.64000000000000012</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H3" s="2">
+        <f>1-SQRT(I3)</f>
+        <v>0.16333997346592444</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="J3" s="2">
+        <f t="shared" ref="J3:J16" si="2">1-SQRT(K3)</f>
+        <v>2.5320565519103666E-2</v>
+      </c>
+      <c r="K3" s="2">
+        <f>I3+0.25</f>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2">
+      <c r="D4" s="2">
         <v>0.65</v>
       </c>
-      <c r="C4" s="2">
-        <f>(1-B4)^2</f>
+      <c r="E4" s="2">
+        <f t="shared" si="0"/>
         <v>0.12249999999999998</v>
       </c>
-      <c r="D4" s="2">
-        <f t="shared" ref="D4:D16" si="0">1-(1-B4)*2</f>
+      <c r="F4" s="2">
+        <f t="shared" ref="F4:F16" si="3">1-(1-D4)*2</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="E4" s="2">
-        <f>(1-D4)^2</f>
+      <c r="G4" s="2">
+        <f t="shared" si="1"/>
         <v>0.48999999999999994</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H4" s="2">
+        <f t="shared" ref="H4:H16" si="4">1-SQRT(I4)</f>
+        <v>0.2254033307585166</v>
+      </c>
+      <c r="I4" s="2">
+        <f>I3-0.1</f>
+        <v>0.6</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" si="2"/>
+        <v>7.8045554270711248E-2</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" ref="K4:K16" si="5">I4+0.25</f>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2">
+      <c r="D5" s="2">
         <v>0.7</v>
       </c>
-      <c r="C5" s="2">
-        <f>(1-B5)^2</f>
+      <c r="E5" s="2">
+        <f t="shared" si="0"/>
         <v>9.0000000000000024E-2</v>
       </c>
-      <c r="D5" s="2">
-        <f t="shared" si="0"/>
+      <c r="F5" s="2">
+        <f t="shared" si="3"/>
         <v>0.39999999999999991</v>
       </c>
-      <c r="E5" s="2">
-        <f>(1-D5)^2</f>
-        <v>0.3600000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="C6" s="2">
-        <f>(1-B6)^2</f>
-        <v>6.7600000000000007E-2</v>
-      </c>
-      <c r="D6" s="2">
-        <f t="shared" si="0"/>
-        <v>0.48</v>
-      </c>
-      <c r="E6" s="2">
-        <f>(1-D6)^2</f>
-        <v>0.27040000000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="C7" s="2">
-        <f>(1-B7)^2</f>
-        <v>5.2899999999999989E-2</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" si="0"/>
-        <v>0.54</v>
-      </c>
-      <c r="E7" s="2">
-        <f>(1-D7)^2</f>
-        <v>0.21159999999999995</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.79</v>
-      </c>
-      <c r="C8" s="2">
-        <f>(1-B8)^2</f>
-        <v>4.4099999999999986E-2</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" si="0"/>
-        <v>0.58000000000000007</v>
-      </c>
-      <c r="E8" s="2">
-        <f>(1-D8)^2</f>
-        <v>0.17639999999999995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="C9" s="2">
-        <f>(1-B9)^2</f>
-        <v>3.999999999999998E-2</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" si="0"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="E9" s="2">
-        <f>(1-D9)^2</f>
-        <v>0.15999999999999992</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="C10" s="2">
-        <f>(1-B10)^2</f>
-        <v>0.16000000000000003</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" si="0"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="E10" s="2">
-        <f>(1-D10)^2</f>
-        <v>0.64000000000000012</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="C11" s="2">
-        <f>(1-B11)^2</f>
-        <v>0.16000000000000003</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" si="0"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="E11" s="2">
-        <f>(1-D11)^2</f>
-        <v>0.64000000000000012</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="C12" s="2">
-        <f>(1-B12)^2</f>
-        <v>0.12249999999999998</v>
-      </c>
-      <c r="D12" s="2">
-        <f t="shared" si="0"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="E12" s="2">
-        <f>(1-D12)^2</f>
-        <v>0.48999999999999994</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="C13" s="2">
-        <f>(1-B13)^2</f>
-        <v>9.0000000000000024E-2</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" si="0"/>
-        <v>0.39999999999999991</v>
-      </c>
-      <c r="E13" s="2">
-        <f>(1-D13)^2</f>
-        <v>0.3600000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="C14" s="2">
-        <f>(1-B14)^2</f>
-        <v>9.0000000000000024E-2</v>
-      </c>
-      <c r="D14" s="2">
-        <f t="shared" si="0"/>
-        <v>0.39999999999999991</v>
-      </c>
-      <c r="E14" s="2">
-        <f>(1-D14)^2</f>
-        <v>0.3600000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="C15" s="2">
-        <f t="shared" ref="C15:E15" si="1">(1-B15)^2</f>
-        <v>9.0000000000000024E-2</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" si="0"/>
-        <v>0.39999999999999991</v>
-      </c>
-      <c r="E15" s="2">
+      <c r="G5" s="2">
         <f t="shared" si="1"/>
         <v>0.3600000000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H5" s="2">
+        <f t="shared" si="4"/>
+        <v>0.29289321881345243</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" ref="I5:I9" si="6">I4-0.1</f>
+        <v>0.5</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="2"/>
+        <v>0.1339745962155614</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" si="5"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>6.7600000000000007E-2</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="3"/>
+        <v>0.48</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.27040000000000003</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="4"/>
+        <v>0.36754446796632412</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="6"/>
+        <v>0.4</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="2"/>
+        <v>0.19377422517014498</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="5"/>
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>5.2899999999999989E-2</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="3"/>
+        <v>0.54</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.21159999999999995</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="4"/>
+        <v>0.45227744249483381</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="6"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="2"/>
+        <v>0.25838015129043368</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" si="5"/>
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>4.4099999999999986E-2</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="3"/>
+        <v>0.58000000000000007</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="1"/>
+        <v>0.17639999999999995</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="4"/>
+        <v>0.55278640450004202</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="6"/>
+        <v>0.20000000000000004</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="2"/>
+        <v>0.32917960675006308</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" si="5"/>
+        <v>0.45000000000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>3.999999999999998E-2</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="3"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.15999999999999992</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="4"/>
+        <v>0.683772233983162</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="6"/>
+        <v>0.10000000000000003</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="2"/>
+        <v>0.40839202169003841</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" si="5"/>
+        <v>0.35000000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="3"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="1"/>
+        <v>0.64000000000000012</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="4"/>
+        <v>0.16333997346592444</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="2"/>
+        <v>2.5320565519103666E-2</v>
+      </c>
+      <c r="K10" s="2">
+        <f>I10+0.25</f>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="3"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="1"/>
+        <v>0.64000000000000012</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="4"/>
+        <v>0.19377422517014498</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="2"/>
+        <v>5.1316701949486232E-2</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="5"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.12249999999999998</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="3"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="1"/>
+        <v>0.48999999999999994</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="4"/>
+        <v>0.29289321881345243</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="2"/>
+        <v>0.1339745962155614</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="5"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="0"/>
+        <v>9.0000000000000024E-2</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="3"/>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.3600000000000001</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="4"/>
+        <v>0.40839202169003841</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="2"/>
+        <v>0.2254033307585166</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" si="5"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="0"/>
+        <v>9.0000000000000024E-2</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="3"/>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="1"/>
+        <v>0.3600000000000001</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="4"/>
+        <v>0.45227744249483393</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="2"/>
+        <v>0.25838015129043368</v>
+      </c>
+      <c r="K14" s="2">
+        <f t="shared" si="5"/>
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" ref="E15:G15" si="7">(1-D15)^2</f>
+        <v>9.0000000000000024E-2</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="3"/>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="7"/>
+        <v>0.3600000000000001</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" si="2"/>
+        <v>0.29289321881345243</v>
+      </c>
+      <c r="K15" s="2">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="2">
+      <c r="D16" s="2">
         <v>0.8</v>
-      </c>
-      <c r="C16" s="2">
-        <f>(1-B16)^2</f>
-        <v>3.999999999999998E-2</v>
-      </c>
-      <c r="D16" s="2">
-        <f t="shared" si="0"/>
-        <v>0.60000000000000009</v>
       </c>
       <c r="E16" s="2">
         <f>(1-D16)^2</f>
+        <v>3.999999999999998E-2</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="3"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="G16" s="2">
+        <f>(1-F16)^2</f>
         <v>0.15999999999999992</v>
       </c>
+      <c r="H16" s="2">
+        <f t="shared" si="4"/>
+        <v>0.683772233983162</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="2"/>
+        <v>0.40839202169003841</v>
+      </c>
+      <c r="K16" s="2">
+        <f t="shared" si="5"/>
+        <v>0.35</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:C1"/>
+  <mergeCells count="4">
     <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
